--- a/Assets/_Systems/Database/Event/StromEvent.xlsx
+++ b/Assets/_Systems/Database/Event/StromEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98339\Desktop\工程\Unity\countryside\Assets\_Systems\Database\Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98339\Desktop\工程\Unity\countryside\Country-side\Assets\_Systems\Database\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DA4A99-8C70-4AA0-850B-396E9DE82C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900EF49-B311-44C3-8AFC-A2871F85DF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9250" yWindow="0" windowWidth="16440" windowHeight="13770" xr2:uid="{71A9E730-1291-44D4-8103-926F10B3D08E}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{71A9E730-1291-44D4-8103-926F10B3D08E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">获得国家资金支持200万，救灾使用250万，金钱-50万
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddMoney  -50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +80,10 @@
   </si>
   <si>
     <t>AddHappiness -15|AddPopulation -30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得国家资金支持200万，救灾使用250万，金钱-50万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +471,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -543,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -557,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.3">
